--- a/raw_data/20200818_saline/20200818_Sensor3_Test_91.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_91.xlsx
@@ -1,1928 +1,2344 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC701B-3E39-4A03-82A1-054F821AB683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>81557.611640</v>
+        <v>81557.611640000003</v>
       </c>
       <c r="B2" s="1">
         <v>22.654892</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.728000</v>
+        <v>-257.72800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>81568.056533</v>
+        <v>81568.056532999995</v>
       </c>
       <c r="G2" s="1">
-        <v>22.657793</v>
+        <v>22.657793000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.470000</v>
+        <v>1171.47</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.019000</v>
+        <v>-217.01900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>81578.566263</v>
+        <v>81578.566263000001</v>
       </c>
       <c r="L2" s="1">
-        <v>22.660713</v>
+        <v>22.660713000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.330000</v>
+        <v>1200.33</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.703000</v>
+        <v>-151.703</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>81589.095833</v>
+        <v>81589.095832999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.663638</v>
+        <v>22.663637999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.706000</v>
+        <v>-129.70599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>81600.210684</v>
+        <v>81600.210684000005</v>
       </c>
       <c r="V2" s="1">
         <v>22.666725</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>81610.658910</v>
+        <v>81610.658909999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.669627</v>
+        <v>22.669626999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.286900</v>
+        <v>-91.286900000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>81621.030256</v>
+        <v>81621.030255999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.672508</v>
+        <v>22.672508000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1228.870000</v>
+        <v>1228.8699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.632400</v>
+        <v>-86.632400000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>81631.126359</v>
+        <v>81631.126359000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.675313</v>
+        <v>22.675312999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.676400</v>
+        <v>-89.676400000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>81641.383094</v>
+        <v>81641.383094000004</v>
       </c>
       <c r="AP2" s="1">
         <v>22.678162</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.339000</v>
+        <v>-101.339</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>81652.027271</v>
+        <v>81652.027270999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.681119</v>
+        <v>22.681118999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.421000</v>
+        <v>-120.42100000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>81663.050335</v>
+        <v>81663.050335000007</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.684181</v>
+        <v>22.684180999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.730000</v>
+        <v>-137.72999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>81674.320922</v>
+        <v>81674.320921999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.687311</v>
+        <v>22.687311000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.318000</v>
+        <v>-219.31800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>81685.358922</v>
+        <v>81685.358921999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.690377</v>
+        <v>22.690377000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.085000</v>
+        <v>-355.08499999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>81696.813003</v>
+        <v>81696.813003000003</v>
       </c>
       <c r="BO2" s="1">
         <v>22.693559</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.643000</v>
+        <v>-575.64300000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>81707.906526</v>
+        <v>81707.906526000006</v>
       </c>
       <c r="BT2" s="1">
         <v>22.696641</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.780000</v>
+        <v>1618.78</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.378000</v>
+        <v>-823.37800000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>81718.559598</v>
+        <v>81718.559598000007</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.699600</v>
+        <v>22.6996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.240000</v>
+        <v>1771.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.780000</v>
+        <v>-1092.78</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>81729.413056</v>
+        <v>81729.413056000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.702615</v>
+        <v>22.702615000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2186.750000</v>
+        <v>2186.75</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1743.570000</v>
+        <v>-1743.57</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>81558.055236</v>
       </c>
       <c r="B3" s="1">
-        <v>22.655015</v>
+        <v>22.655014999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.420000</v>
+        <v>1149.42</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.972000</v>
+        <v>-257.97199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81568.425557</v>
+        <v>81568.425556999995</v>
       </c>
       <c r="G3" s="1">
-        <v>22.657896</v>
+        <v>22.657896000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.340000</v>
+        <v>1172.3399999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.805000</v>
+        <v>-216.80500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>81579.265126</v>
+        <v>81579.265125999998</v>
       </c>
       <c r="L3" s="1">
-        <v>22.660907</v>
+        <v>22.660907000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.840000</v>
+        <v>-151.84</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>81590.002559</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.663890</v>
+        <v>22.663889999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.470000</v>
+        <v>1208.47</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.712000</v>
+        <v>-129.71199999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>81600.615914</v>
+        <v>81600.615913999995</v>
       </c>
       <c r="V3" s="1">
-        <v>22.666838</v>
+        <v>22.666837999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.210000</v>
+        <v>1216.21</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.700000</v>
+        <v>-108.7</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>81611.085964</v>
+        <v>81611.085963999998</v>
       </c>
       <c r="AA3" s="1">
         <v>22.669746</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.000000</v>
+        <v>1224</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.291300</v>
+        <v>-91.291300000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>81621.373996</v>
+        <v>81621.373995999995</v>
       </c>
       <c r="AF3" s="1">
         <v>22.672604</v>
       </c>
       <c r="AG3" s="1">
-        <v>1228.730000</v>
+        <v>1228.73</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.719900</v>
+        <v>-86.719899999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>81631.511713</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.675420</v>
+        <v>22.675419999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.692200</v>
+        <v>-89.6922</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>81641.777412</v>
+        <v>81641.777411999996</v>
       </c>
       <c r="AP3" s="1">
         <v>22.678272</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.305000</v>
+        <v>-101.30500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>81652.449367</v>
+        <v>81652.449366999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.681236</v>
+        <v>22.681235999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1253.920000</v>
+        <v>1253.92</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.418000</v>
+        <v>-120.41800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>81663.784904</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.684385</v>
+        <v>22.684384999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.774000</v>
+        <v>-137.774</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>81674.757401</v>
+        <v>81674.757400999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.687433</v>
+        <v>22.687432999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.276000</v>
+        <v>-219.27600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>81685.735354</v>
+        <v>81685.735354000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.690482</v>
+        <v>22.690481999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1371.840000</v>
+        <v>1371.84</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.123000</v>
+        <v>-355.12299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>81697.219228</v>
+        <v>81697.219228000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.693672</v>
+        <v>22.693671999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.619000</v>
+        <v>-575.61900000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>81708.353916</v>
+        <v>81708.353915999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.696765</v>
+        <v>22.696764999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.770000</v>
+        <v>1618.77</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.447000</v>
+        <v>-823.447</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>81719.028317</v>
+        <v>81719.028317000004</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.699730</v>
+        <v>22.699729999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.390000</v>
+        <v>1771.39</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.950000</v>
+        <v>-1092.95</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>81729.977503</v>
+        <v>81729.977503000002</v>
       </c>
       <c r="CD3" s="1">
         <v>22.702772</v>
       </c>
       <c r="CE3" s="1">
-        <v>2186.050000</v>
+        <v>2186.0500000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1743.190000</v>
+        <v>-1743.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>81558.375618</v>
+        <v>81558.375618000005</v>
       </c>
       <c r="B4" s="1">
-        <v>22.655104</v>
+        <v>22.655104000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.710000</v>
+        <v>1149.71</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.079000</v>
+        <v>-258.07900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>81569.086756</v>
+        <v>81569.086756000004</v>
       </c>
       <c r="G4" s="1">
-        <v>22.658080</v>
+        <v>22.658080000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.990000</v>
+        <v>1170.99</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.529000</v>
+        <v>-217.529</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>81579.634646</v>
+        <v>81579.634646000006</v>
       </c>
       <c r="L4" s="1">
-        <v>22.661010</v>
+        <v>22.661010000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.786000</v>
+        <v>-151.786</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>81590.399320</v>
+        <v>81590.399319999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.664000</v>
+        <v>22.664000000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.644000</v>
+        <v>-129.64400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>81600.965097</v>
+        <v>81600.965096999993</v>
       </c>
       <c r="V4" s="1">
-        <v>22.666935</v>
+        <v>22.666934999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.661000</v>
+        <v>-108.661</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>81611.434653</v>
+        <v>81611.434653000004</v>
       </c>
       <c r="AA4" s="1">
         <v>22.669843</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.347200</v>
+        <v>-91.347200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>81621.718740</v>
+        <v>81621.718739999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.672700</v>
+        <v>22.672699999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1228.850000</v>
+        <v>1228.8499999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.554900</v>
+        <v>-86.554900000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>81631.929846</v>
+        <v>81631.929845999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.675536</v>
+        <v>22.675536000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.674500</v>
+        <v>-89.674499999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>81642.200004</v>
+        <v>81642.200003999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.678389</v>
+        <v>22.678388999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.342000</v>
+        <v>-101.342</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>81652.779669</v>
+        <v>81652.779668999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.681328</v>
+        <v>22.681328000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.414000</v>
+        <v>-120.414</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>81664.145494</v>
+        <v>81664.145493999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.684485</v>
+        <v>22.684484999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.761000</v>
+        <v>-137.761</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>81675.121496</v>
+        <v>81675.121496000007</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.687534</v>
+        <v>22.687533999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.230000</v>
+        <v>1302.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.287000</v>
+        <v>-219.28700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>81686.110334</v>
+        <v>81686.110333999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>22.690586</v>
       </c>
       <c r="BK4" s="1">
-        <v>1371.860000</v>
+        <v>1371.86</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.086000</v>
+        <v>-355.08600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>81697.613546</v>
+        <v>81697.613545999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.693782</v>
+        <v>22.693781999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.716000</v>
+        <v>-575.71600000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>81708.780985</v>
+        <v>81708.780985000005</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.696884</v>
+        <v>22.696884000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.680000</v>
+        <v>1618.68</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.536000</v>
+        <v>-823.53599999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>81719.450941</v>
+        <v>81719.450941000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.699847</v>
+        <v>22.699846999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.290000</v>
+        <v>1771.29</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.900000</v>
+        <v>-1092.9000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>81730.498304</v>
+        <v>81730.498303999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.702916</v>
+        <v>22.702915999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2187.900000</v>
+        <v>2187.9</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1744.290000</v>
+        <v>-1744.29</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>81559.059106</v>
+        <v>81559.059106000001</v>
       </c>
       <c r="B5" s="1">
-        <v>22.655294</v>
+        <v>22.655294000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.866000</v>
+        <v>-257.86599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81569.458724</v>
+        <v>81569.458723999996</v>
       </c>
       <c r="G5" s="1">
-        <v>22.658183</v>
+        <v>22.658183000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.060000</v>
+        <v>1172.06</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.370000</v>
+        <v>-217.37</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>81579.982869</v>
+        <v>81579.982868999999</v>
       </c>
       <c r="L5" s="1">
         <v>22.661106</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.360000</v>
+        <v>1200.3599999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.695000</v>
+        <v>-151.69499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>81590.748503</v>
+        <v>81590.748502999995</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.664097</v>
+        <v>22.664097000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.642000</v>
+        <v>-129.642</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>81601.305849</v>
+        <v>81601.305848999997</v>
       </c>
       <c r="V5" s="1">
-        <v>22.667029</v>
+        <v>22.667028999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.230000</v>
+        <v>1216.23</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.553000</v>
+        <v>-108.553</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>81611.856934</v>
+        <v>81611.856933999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.669960</v>
+        <v>22.66996</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.318400</v>
+        <v>-91.318399999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>81622.148238</v>
+        <v>81622.148237999994</v>
       </c>
       <c r="AF5" s="1">
         <v>22.672819</v>
       </c>
       <c r="AG5" s="1">
-        <v>1228.820000</v>
+        <v>1228.82</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.758000</v>
+        <v>-86.757999999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>81632.225952</v>
+        <v>81632.225951999993</v>
       </c>
       <c r="AK5" s="1">
         <v>22.675618</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.070000</v>
+        <v>1236.07</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.659700</v>
+        <v>-89.659700000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>81642.496643</v>
+        <v>81642.496643000006</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.678471</v>
+        <v>22.678470999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.322000</v>
+        <v>-101.322</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>81653.143765</v>
+        <v>81653.143765000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.681429</v>
+        <v>22.681429000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.442000</v>
+        <v>-120.44199999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>81664.504102</v>
+        <v>81664.504102000006</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.684584</v>
+        <v>22.684584000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.766000</v>
+        <v>-137.76599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>81675.482551</v>
+        <v>81675.482550999994</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.687634</v>
+        <v>22.687633999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.240000</v>
+        <v>1302.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.287000</v>
+        <v>-219.28700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>81686.860281</v>
+        <v>81686.860281000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.690795</v>
+        <v>22.690795000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1371.860000</v>
+        <v>1371.86</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.119000</v>
+        <v>-355.11900000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>81698.428473</v>
+        <v>81698.428473000007</v>
       </c>
       <c r="BO5" s="1">
         <v>22.694008</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.692000</v>
+        <v>-575.69200000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>81709.195132</v>
+        <v>81709.195131999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.696999</v>
+        <v>22.696999000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.528000</v>
+        <v>-823.52800000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>81719.871517</v>
+        <v>81719.871517000007</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.699964</v>
+        <v>22.699964000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.860000</v>
+        <v>-1092.8599999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>81731.016622</v>
+        <v>81731.016621999996</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.703060</v>
+        <v>22.703060000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2187.420000</v>
+        <v>2187.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1744.070000</v>
+        <v>-1744.07</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>81559.408785</v>
+        <v>81559.408785000007</v>
       </c>
       <c r="B6" s="1">
-        <v>22.655391</v>
+        <v>22.655391000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.981000</v>
+        <v>-257.98099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>81569.802451</v>
+        <v>81569.802450999996</v>
       </c>
       <c r="G6" s="1">
-        <v>22.658278</v>
+        <v>22.658277999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.167000</v>
+        <v>-217.167</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>81580.328582</v>
+        <v>81580.328582000002</v>
       </c>
       <c r="L6" s="1">
-        <v>22.661202</v>
+        <v>22.661201999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1200.290000</v>
+        <v>1200.29</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.853000</v>
+        <v>-151.85300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>81591.096708</v>
+        <v>81591.096707999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.664194</v>
+        <v>22.664193999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.646000</v>
+        <v>-129.64599999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>81601.733400</v>
+        <v>81601.733399999997</v>
       </c>
       <c r="V6" s="1">
-        <v>22.667148</v>
+        <v>22.667148000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.777000</v>
+        <v>-108.777</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>81612.147403</v>
+        <v>81612.147402999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.670041</v>
+        <v>22.670041000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.285000</v>
+        <v>-91.284999999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>81622.414094</v>
+        <v>81622.414094000007</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.672893</v>
+        <v>22.672892999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1228.740000</v>
+        <v>1228.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.538200</v>
+        <v>-86.538200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>81632.568223</v>
+        <v>81632.568222999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.675713</v>
+        <v>22.675712999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.671600</v>
+        <v>-89.671599999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>81642.858194</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.678572</v>
+        <v>22.678571999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.327000</v>
+        <v>-101.327</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>81653.509284</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.681530</v>
+        <v>22.681529999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.435000</v>
+        <v>-120.435</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>81665.221813</v>
+        <v>81665.221812999996</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.684784</v>
+        <v>22.684784000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.340000</v>
+        <v>1262.3399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.754000</v>
+        <v>-137.75399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>81676.204262</v>
+        <v>81676.204261999999</v>
       </c>
       <c r="BE6" s="1">
         <v>22.687835</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.307000</v>
+        <v>-219.30699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>81687.235256</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.690899</v>
+        <v>22.690899000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.125000</v>
+        <v>-355.125</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>81698.814894</v>
+        <v>81698.814893999996</v>
       </c>
       <c r="BO6" s="1">
         <v>22.694115</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.699000</v>
+        <v>-575.69899999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>81709.612799</v>
+        <v>81709.612798999995</v>
       </c>
       <c r="BT6" s="1">
         <v>22.697115</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.540000</v>
+        <v>1618.54</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.526000</v>
+        <v>-823.52599999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>81720.606127</v>
+        <v>81720.606127000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.700168</v>
+        <v>22.700168000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.890000</v>
+        <v>-1092.8900000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>81731.890605</v>
+        <v>81731.890604999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.703303</v>
+        <v>22.703302999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>2186.780000</v>
+        <v>2186.7800000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1743.550000</v>
+        <v>-1743.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>81559.750032</v>
+        <v>81559.750031999996</v>
       </c>
       <c r="B7" s="1">
         <v>22.655486</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.560000</v>
+        <v>1149.56</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.204000</v>
+        <v>-258.20400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>81570.149651</v>
       </c>
       <c r="G7" s="1">
-        <v>22.658375</v>
+        <v>22.658374999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1171.430000</v>
+        <v>1171.43</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.838000</v>
+        <v>-217.83799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>81580.763540</v>
+        <v>81580.76354</v>
       </c>
       <c r="L7" s="1">
-        <v>22.661323</v>
+        <v>22.661322999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1200.410000</v>
+        <v>1200.4100000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.694000</v>
+        <v>-151.69399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>81591.519286</v>
+        <v>81591.519285999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.664311</v>
+        <v>22.664311000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.697000</v>
+        <v>-129.697</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>81602.005208</v>
+        <v>81602.005208000002</v>
       </c>
       <c r="V7" s="1">
-        <v>22.667224</v>
+        <v>22.667224000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.390000</v>
+        <v>1216.3900000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.553000</v>
+        <v>-108.553</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>81612.501082</v>
+        <v>81612.501082000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.670139</v>
+        <v>22.670138999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.410900</v>
+        <v>-91.410899999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>81622.758813</v>
+        <v>81622.758812999993</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.672989</v>
+        <v>22.672989000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1228.900000</v>
+        <v>1228.9000000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.753800</v>
+        <v>-86.753799999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>81632.923823</v>
+        <v>81632.923823000005</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.675812</v>
+        <v>22.675812000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.646900</v>
+        <v>-89.646900000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>81643.217794</v>
+        <v>81643.217793999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.678672</v>
+        <v>22.678671999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.331000</v>
+        <v>-101.331</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>81654.238404</v>
+        <v>81654.238404000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.681733</v>
+        <v>22.681733000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.411000</v>
+        <v>-120.411</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>81665.580421</v>
+        <v>81665.580421000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.684883</v>
+        <v>22.684882999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.340000</v>
+        <v>1262.3399999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.770000</v>
+        <v>-137.77000000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>81676.564822</v>
@@ -1931,769 +2347,769 @@
         <v>22.687935</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.290000</v>
+        <v>-219.29</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>81687.611223</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.691003</v>
+        <v>22.691002999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.109000</v>
+        <v>-355.10899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>81699.557897</v>
+        <v>81699.557897000006</v>
       </c>
       <c r="BO7" s="1">
         <v>22.694322</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.685000</v>
+        <v>-575.68499999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>81710.344859</v>
+        <v>81710.344859000004</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.697318</v>
+        <v>22.697317999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.530000</v>
+        <v>1618.53</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.526000</v>
+        <v>-823.52599999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>81720.717691</v>
+        <v>81720.717690999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.700199</v>
+        <v>22.700199000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.840000</v>
+        <v>-1092.8399999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>81732.097900</v>
+        <v>81732.097899999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.703361</v>
+        <v>22.703361000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.900000</v>
+        <v>2188.9</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1743.860000</v>
+        <v>-1743.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>81560.175138</v>
+        <v>81560.175138000006</v>
       </c>
       <c r="B8" s="1">
         <v>22.655604</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.837000</v>
+        <v>-257.83699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>81570.595057</v>
+        <v>81570.595056999999</v>
       </c>
       <c r="G8" s="1">
-        <v>22.658499</v>
+        <v>22.658498999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.220000</v>
+        <v>1171.22</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.502000</v>
+        <v>-216.50200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>81581.039814</v>
+        <v>81581.039814000003</v>
       </c>
       <c r="L8" s="1">
-        <v>22.661400</v>
+        <v>22.6614</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.120000</v>
+        <v>1200.1199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.923000</v>
+        <v>-151.923</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>81591.811430</v>
+        <v>81591.811430000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.664392</v>
+        <v>22.664391999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.530000</v>
+        <v>1208.53</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.695000</v>
+        <v>-129.69499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>81602.348969</v>
+        <v>81602.348968999999</v>
       </c>
       <c r="V8" s="1">
-        <v>22.667319</v>
+        <v>22.667318999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>81612.846762</v>
+        <v>81612.846762000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.670235</v>
+        <v>22.670235000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.060000</v>
+        <v>1224.06</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.351900</v>
+        <v>-91.351900000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>81623.100556</v>
+        <v>81623.100556000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.673083</v>
+        <v>22.673082999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1228.770000</v>
+        <v>1228.77</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.719600</v>
+        <v>-86.7196</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>81633.621697</v>
+        <v>81633.621696999995</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.676006</v>
+        <v>22.676006000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.685700</v>
+        <v>-89.685699999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>81643.939969</v>
+        <v>81643.939968999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.678872</v>
+        <v>22.678871999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.326000</v>
+        <v>-101.32599999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>81654.626275</v>
+        <v>81654.626275000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.681841</v>
+        <v>22.681840999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1253.910000</v>
+        <v>1253.9100000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.393000</v>
+        <v>-120.393</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>81665.938037</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.684983</v>
+        <v>22.684982999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.320000</v>
+        <v>1262.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.772000</v>
+        <v>-137.77199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>81676.927397</v>
+        <v>81676.927397000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.688035</v>
+        <v>22.688034999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.298000</v>
+        <v>-219.298</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>81688.304172</v>
+        <v>81688.304172000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.691196</v>
+        <v>22.691196000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1371.840000</v>
+        <v>1371.84</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.101000</v>
+        <v>-355.101</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>81700.063287</v>
+        <v>81700.063286999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.694462</v>
+        <v>22.694462000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.690000</v>
+        <v>-575.69000000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>81710.459962</v>
+        <v>81710.459961999994</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.697350</v>
+        <v>22.69735</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.510000</v>
+        <v>1618.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.629000</v>
+        <v>-823.62900000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>81721.147227</v>
+        <v>81721.147226999994</v>
       </c>
       <c r="BY8" s="1">
         <v>22.700319</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.460000</v>
+        <v>1771.46</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.910000</v>
+        <v>-1092.9100000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>81732.616220</v>
+        <v>81732.616219999996</v>
       </c>
       <c r="CD8" s="1">
         <v>22.703505</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.610000</v>
+        <v>2188.61</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1741.860000</v>
+        <v>-1741.86</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>81560.453359</v>
+        <v>81560.453359000006</v>
       </c>
       <c r="B9" s="1">
-        <v>22.655681</v>
+        <v>22.655681000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.290000</v>
+        <v>1149.29</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.898000</v>
+        <v>-257.89800000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>81570.873314</v>
+        <v>81570.873313999997</v>
       </c>
       <c r="G9" s="1">
         <v>22.658576</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.070000</v>
+        <v>1171.07</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.864000</v>
+        <v>-216.864</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>81581.388501</v>
+        <v>81581.388500999994</v>
       </c>
       <c r="L9" s="1">
-        <v>22.661497</v>
+        <v>22.661497000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.380000</v>
+        <v>1200.3800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.838000</v>
+        <v>-151.83799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>81592.158629</v>
+        <v>81592.158628999998</v>
       </c>
       <c r="Q9" s="1">
         <v>22.664489</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.430000</v>
+        <v>1208.43</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.745000</v>
+        <v>-129.745</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>81602.692168</v>
+        <v>81602.692167999994</v>
       </c>
       <c r="V9" s="1">
-        <v>22.667414</v>
+        <v>22.667414000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.300000</v>
+        <v>1216.3</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.644000</v>
+        <v>-108.64400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>81613.546122</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.670429</v>
+        <v>22.670428999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.345400</v>
+        <v>-91.345399999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>81623.788043</v>
+        <v>81623.788042999993</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.673274</v>
+        <v>22.673273999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1228.650000</v>
+        <v>1228.6500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.545600</v>
+        <v>-86.545599999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>81633.969886</v>
+        <v>81633.969886000006</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.676103</v>
+        <v>22.676103000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.656500</v>
+        <v>-89.656499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>81644.298080</v>
+        <v>81644.298079999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.678972</v>
+        <v>22.678972000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.333000</v>
+        <v>-101.333</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>81654.991826</v>
+        <v>81654.991825999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.681942</v>
+        <v>22.681941999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1253.930000</v>
+        <v>1253.93</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.431000</v>
+        <v>-120.431</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>81666.608628</v>
+        <v>81666.608628000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.685169</v>
+        <v>22.685168999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.760000</v>
+        <v>-137.76</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>81677.609892</v>
+        <v>81677.609891999993</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.688225</v>
+        <v>22.688224999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.300000</v>
+        <v>-219.3</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>81688.737638</v>
+        <v>81688.737638000006</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.691316</v>
       </c>
       <c r="BK9" s="1">
-        <v>1371.860000</v>
+        <v>1371.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.120000</v>
+        <v>-355.12</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>81700.480918</v>
+        <v>81700.480918000001</v>
       </c>
       <c r="BO9" s="1">
         <v>22.694578</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.510000</v>
+        <v>1486.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.669000</v>
+        <v>-575.66899999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>81710.873592</v>
+        <v>81710.873592000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.697465</v>
+        <v>22.697465000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.430000</v>
+        <v>1618.43</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.725000</v>
+        <v>-823.72500000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>81721.569818</v>
+        <v>81721.569818000004</v>
       </c>
       <c r="BY9" s="1">
         <v>22.700436</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.430000</v>
+        <v>1771.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.820000</v>
+        <v>-1092.82</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>81733.200011</v>
+        <v>81733.200010999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.703667</v>
+        <v>22.703666999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2186.620000</v>
+        <v>2186.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1742.320000</v>
+        <v>-1742.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>81560.782704</v>
+        <v>81560.782703999997</v>
       </c>
       <c r="B10" s="1">
         <v>22.655773</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.700000</v>
+        <v>1149.7</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.608000</v>
+        <v>-257.608</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>81571.218530</v>
+        <v>81571.218529999998</v>
       </c>
       <c r="G10" s="1">
-        <v>22.658672</v>
+        <v>22.658671999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.070000</v>
+        <v>1172.07</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.588000</v>
+        <v>-216.58799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>81581.734229</v>
+        <v>81581.734228999994</v>
       </c>
       <c r="L10" s="1">
         <v>22.661593</v>
       </c>
       <c r="M10" s="1">
-        <v>1200.360000</v>
+        <v>1200.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.899000</v>
+        <v>-151.899</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>81592.503845</v>
+        <v>81592.503844999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.664584</v>
+        <v>22.664584000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.440000</v>
+        <v>1208.44</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.672000</v>
+        <v>-129.672</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>81603.378663</v>
+        <v>81603.378662999996</v>
       </c>
       <c r="V10" s="1">
-        <v>22.667605</v>
+        <v>22.667604999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.546000</v>
+        <v>-108.54600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>81613.894344</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.670526</v>
+        <v>22.670525999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.180300</v>
+        <v>-91.180300000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>81624.131243</v>
+        <v>81624.131242999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.673370</v>
+        <v>22.673369999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1228.880000</v>
+        <v>1228.8800000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.481300</v>
+        <v>-86.481300000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>81634.319070</v>
+        <v>81634.319069999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.676200</v>
+        <v>22.676200000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.669100</v>
+        <v>-89.6691</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>81644.659701</v>
+        <v>81644.659700999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.679072</v>
+        <v>22.679072000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.324000</v>
+        <v>-101.324</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>81655.674321</v>
+        <v>81655.674320999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.682132</v>
+        <v>22.682131999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1253.980000</v>
+        <v>1253.98</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.479000</v>
+        <v>-120.479</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>81667.015874</v>
+        <v>81667.015874000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.685282</v>
+        <v>22.685282000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.340000</v>
+        <v>1262.3399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.778000</v>
+        <v>-137.77799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>81678.036452</v>
@@ -2702,587 +3118,587 @@
         <v>22.688343</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.297000</v>
+        <v>-219.297</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>81689.112117</v>
+        <v>81689.112116999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.691420</v>
+        <v>22.691420000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1371.870000</v>
+        <v>1371.87</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.109000</v>
+        <v>-355.10899999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>81700.878214</v>
+        <v>81700.878213999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.694688</v>
+        <v>22.694687999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.520000</v>
+        <v>1486.52</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.693000</v>
+        <v>-575.69299999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>81711.302632</v>
+        <v>81711.302632000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.697584</v>
+        <v>22.697583999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.500000</v>
+        <v>1618.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.736000</v>
+        <v>-823.73599999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>81721.991417</v>
+        <v>81721.991416999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.700553</v>
+        <v>22.700552999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.260000</v>
+        <v>1771.26</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1092.850000</v>
+        <v>-1092.8499999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>81733.652858</v>
+        <v>81733.652858000001</v>
       </c>
       <c r="CD10" s="1">
         <v>22.703792</v>
       </c>
       <c r="CE10" s="1">
-        <v>2186.850000</v>
+        <v>2186.85</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1742.020000</v>
+        <v>-1742.02</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>81561.131423</v>
+        <v>81561.131422999999</v>
       </c>
       <c r="B11" s="1">
-        <v>22.655870</v>
+        <v>22.65587</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.660000</v>
+        <v>1149.6600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.055000</v>
+        <v>-258.05500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>81571.561762</v>
+        <v>81571.561761999998</v>
       </c>
       <c r="G11" s="1">
-        <v>22.658767</v>
+        <v>22.658767000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1171.980000</v>
+        <v>1171.98</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.861000</v>
+        <v>-216.86099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>81582.430099</v>
+        <v>81582.430099000005</v>
       </c>
       <c r="L11" s="1">
-        <v>22.661786</v>
+        <v>22.661785999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.799000</v>
+        <v>-151.79900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>81593.211636</v>
+        <v>81593.211636000007</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.664781</v>
+        <v>22.664781000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.640000</v>
+        <v>-129.63999999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>81603.722358</v>
+        <v>81603.722357999999</v>
       </c>
       <c r="V11" s="1">
-        <v>22.667701</v>
+        <v>22.667701000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.310000</v>
+        <v>1216.31</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>81614.241016</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.670623</v>
+        <v>22.670622999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.319500</v>
+        <v>-91.319500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>81624.477488</v>
+        <v>81624.477488000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.673466</v>
+        <v>22.673466000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1228.920000</v>
+        <v>1228.92</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.380800</v>
+        <v>-86.380799999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>81634.981757</v>
+        <v>81634.981757000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.676384</v>
+        <v>22.676383999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.669600</v>
+        <v>-89.669600000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>81645.433951</v>
+        <v>81645.433950999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.679287</v>
+        <v>22.679286999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.318000</v>
+        <v>-101.318</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>81656.349884</v>
+        <v>81656.349883999996</v>
       </c>
       <c r="AU11" s="1">
         <v>22.682319</v>
       </c>
       <c r="AV11" s="1">
-        <v>1253.960000</v>
+        <v>1253.96</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.402000</v>
+        <v>-120.402</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>81667.397772</v>
+        <v>81667.397771999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>22.685388</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.320000</v>
+        <v>1262.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.788000</v>
+        <v>-137.78800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>81678.397075</v>
+        <v>81678.397075000001</v>
       </c>
       <c r="BE11" s="1">
         <v>22.688444</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.220000</v>
+        <v>1302.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.285000</v>
+        <v>-219.285</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>81689.490071</v>
+        <v>81689.490070999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.691525</v>
+        <v>22.691524999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.107000</v>
+        <v>-355.10700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>81701.299813</v>
+        <v>81701.299813000005</v>
       </c>
       <c r="BO11" s="1">
         <v>22.694806</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.560000</v>
+        <v>1486.56</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.656000</v>
+        <v>-575.65599999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>81711.736135</v>
+        <v>81711.736134999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.697704</v>
+        <v>22.697704000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.780000</v>
+        <v>-823.78</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>81722.418475</v>
+        <v>81722.418474999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.700672</v>
+        <v>22.700672000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.370000</v>
+        <v>1771.37</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.940000</v>
+        <v>-1092.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>81734.203914</v>
+        <v>81734.203913999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.703946</v>
+        <v>22.703945999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.010000</v>
+        <v>2188.0100000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1741.300000</v>
+        <v>-1741.3</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>81561.816365</v>
+        <v>81561.816365000006</v>
       </c>
       <c r="B12" s="1">
-        <v>22.656060</v>
+        <v>22.65606</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.817000</v>
+        <v>-257.81700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>81572.256160</v>
+        <v>81572.256160000004</v>
       </c>
       <c r="G12" s="1">
-        <v>22.658960</v>
+        <v>22.65896</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.880000</v>
+        <v>1171.8800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.038000</v>
+        <v>-217.03800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>81582.780769</v>
+        <v>81582.780769000005</v>
       </c>
       <c r="L12" s="1">
-        <v>22.661884</v>
+        <v>22.661884000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.420000</v>
+        <v>1200.42</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.908000</v>
+        <v>-151.90799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>81593.549907</v>
+        <v>81593.549906999993</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.664875</v>
+        <v>22.664874999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.635000</v>
+        <v>-129.63499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>81604.065094</v>
+        <v>81604.065094000005</v>
       </c>
       <c r="V12" s="1">
-        <v>22.667796</v>
+        <v>22.667795999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.695000</v>
+        <v>-108.69499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>81614.902679</v>
+        <v>81614.902679000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.670806</v>
+        <v>22.670805999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.050000</v>
+        <v>1224.05</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.376100</v>
+        <v>-91.376099999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>81625.148575</v>
+        <v>81625.148574999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.673652</v>
+        <v>22.673652000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1228.740000</v>
+        <v>1228.74</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.561200</v>
+        <v>-86.561199999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>81635.363186</v>
+        <v>81635.363186000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.676490</v>
+        <v>22.676490000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.697900</v>
+        <v>-89.697900000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>81645.774174</v>
+        <v>81645.774174000006</v>
       </c>
       <c r="AP12" s="1">
         <v>22.679382</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.308000</v>
+        <v>-101.30800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>81656.756102</v>
+        <v>81656.756101999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.682432</v>
+        <v>22.682431999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.419000</v>
+        <v>-120.419</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>81667.756867</v>
+        <v>81667.756867000004</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.685488</v>
+        <v>22.685487999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.769000</v>
+        <v>-137.76900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>81678.758665</v>
+        <v>81678.758665000001</v>
       </c>
       <c r="BE12" s="1">
         <v>22.688544</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.240000</v>
+        <v>1302.24</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.276000</v>
+        <v>-219.27600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>81689.939940</v>
+        <v>81689.939939999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.691650</v>
+        <v>22.691649999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.078000</v>
+        <v>-355.07799999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>81701.695621</v>
+        <v>81701.695621000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.694915</v>
+        <v>22.694915000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.643000</v>
+        <v>-575.64300000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>81712.131945</v>
+        <v>81712.131945000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.697814</v>
+        <v>22.697814000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.440000</v>
+        <v>1618.44</v>
       </c>
       <c r="BV12" s="1">
-        <v>-823.794000</v>
+        <v>-823.79399999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>81722.834157</v>
+        <v>81722.834157000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.700787</v>
+        <v>22.700786999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.910000</v>
+        <v>-1092.9100000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>81734.734633</v>
@@ -3291,1133 +3707,1133 @@
         <v>22.704093</v>
       </c>
       <c r="CE12" s="1">
-        <v>2186.310000</v>
+        <v>2186.31</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1742.440000</v>
+        <v>-1742.44</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>81562.158605</v>
+        <v>81562.158605000004</v>
       </c>
       <c r="B13" s="1">
-        <v>22.656155</v>
+        <v>22.656154999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.380000</v>
+        <v>1149.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.041000</v>
+        <v>-258.041</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>81572.601377</v>
+        <v>81572.601376999999</v>
       </c>
       <c r="G13" s="1">
         <v>22.659056</v>
       </c>
       <c r="H13" s="1">
-        <v>1171.880000</v>
+        <v>1171.8800000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.070000</v>
+        <v>-217.07</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>81583.126236</v>
+        <v>81583.126235999996</v>
       </c>
       <c r="L13" s="1">
-        <v>22.661980</v>
+        <v>22.66198</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.330000</v>
+        <v>1200.33</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.892000</v>
+        <v>-151.892</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>81594.221491</v>
+        <v>81594.221491000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.665062</v>
+        <v>22.665061999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.734000</v>
+        <v>-129.73400000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>81604.726791</v>
+        <v>81604.726790999994</v>
       </c>
       <c r="V13" s="1">
-        <v>22.667980</v>
+        <v>22.66798</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.722000</v>
+        <v>-108.72199999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>81615.288072</v>
+        <v>81615.288071999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.670913</v>
+        <v>22.670912999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.314000</v>
+        <v>-91.313999999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>81625.514089</v>
+        <v>81625.514089000004</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.673754</v>
+        <v>22.673753999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1228.790000</v>
+        <v>1228.79</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.629600</v>
+        <v>-86.629599999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>81635.712332</v>
+        <v>81635.712331999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.676587</v>
+        <v>22.676587000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.633500</v>
+        <v>-89.633499999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>81646.128318</v>
+        <v>81646.128318000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.679480</v>
+        <v>22.679480000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.297000</v>
+        <v>-101.297</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>81657.117716</v>
+        <v>81657.117715999993</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.682533</v>
+        <v>22.682532999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.437000</v>
+        <v>-120.437</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>81668.185409</v>
+        <v>81668.185408999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.685607</v>
+        <v>22.685607000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.320000</v>
+        <v>1262.32</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.781000</v>
+        <v>-137.78100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>81679.207010</v>
+        <v>81679.207009999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.688669</v>
+        <v>22.688669000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.230000</v>
+        <v>1302.23</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.300000</v>
+        <v>-219.3</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>81690.272260</v>
+        <v>81690.272259999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.691742</v>
+        <v>22.691742000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1371.860000</v>
+        <v>1371.86</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.083000</v>
+        <v>-355.08300000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>81702.117716</v>
+        <v>81702.117715999993</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.695033</v>
+        <v>22.695032999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.580000</v>
+        <v>1486.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.653000</v>
+        <v>-575.65300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>81712.546103</v>
+        <v>81712.546103000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.697929</v>
+        <v>22.697928999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1618.380000</v>
+        <v>1618.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-823.800000</v>
+        <v>-823.8</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>81723.283033</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.700912</v>
+        <v>22.700911999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.250000</v>
+        <v>1771.25</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.880000</v>
+        <v>-1092.8800000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>81735.252984</v>
+        <v>81735.252984000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.704237</v>
+        <v>22.704236999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2186.820000</v>
+        <v>2186.8200000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1741.840000</v>
+        <v>-1741.84</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>81562.503325</v>
+        <v>81562.503324999998</v>
       </c>
       <c r="B14" s="1">
-        <v>22.656251</v>
+        <v>22.656251000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.841000</v>
+        <v>-257.84100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>81572.944110</v>
+        <v>81572.944109999997</v>
       </c>
       <c r="G14" s="1">
-        <v>22.659151</v>
+        <v>22.659151000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.150000</v>
+        <v>1172.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.247000</v>
+        <v>-217.24700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>81583.786162</v>
+        <v>81583.786162000004</v>
       </c>
       <c r="L14" s="1">
         <v>22.662163</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.893000</v>
+        <v>-151.893</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>81594.594484</v>
+        <v>81594.594484000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.665165</v>
+        <v>22.665164999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.717000</v>
+        <v>-129.71700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>81605.094790</v>
+        <v>81605.094790000003</v>
       </c>
       <c r="V14" s="1">
-        <v>22.668082</v>
+        <v>22.668081999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.270000</v>
+        <v>1216.27</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.594000</v>
+        <v>-108.59399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>81615.638246</v>
+        <v>81615.638246000002</v>
       </c>
       <c r="AA14" s="1">
         <v>22.671011</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.336000</v>
+        <v>-91.335999999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>81625.860330</v>
+        <v>81625.860329999996</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.673850</v>
+        <v>22.673850000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1228.640000</v>
+        <v>1228.6400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.517700</v>
+        <v>-86.517700000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>81636.063035</v>
+        <v>81636.063034999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.676684</v>
+        <v>22.676684000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.671900</v>
+        <v>-89.671899999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>81646.545487</v>
+        <v>81646.545486999996</v>
       </c>
       <c r="AP14" s="1">
         <v>22.679596</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.338000</v>
+        <v>-101.33799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>81657.539310</v>
+        <v>81657.539309999993</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.682650</v>
+        <v>22.682649999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.423000</v>
+        <v>-120.423</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>81668.473089</v>
+        <v>81668.473089000006</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.685687</v>
+        <v>22.685687000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.310000</v>
+        <v>1262.31</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.778000</v>
+        <v>-137.77799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>81679.486755</v>
+        <v>81679.486755000005</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.688746</v>
+        <v>22.688745999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.304000</v>
+        <v>-219.304</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>81690.646739</v>
+        <v>81690.646739000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.691846</v>
+        <v>22.691846000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1371.870000</v>
+        <v>1371.87</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.096000</v>
+        <v>-355.096</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>81702.516995</v>
+        <v>81702.516994999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.695144</v>
+        <v>22.695143999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.570000</v>
+        <v>1486.57</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.692000</v>
+        <v>-575.69200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>81712.958814</v>
+        <v>81712.958813999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.698044</v>
+        <v>22.698043999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.430000</v>
+        <v>1618.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-823.849000</v>
+        <v>-823.84900000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>81723.705592</v>
+        <v>81723.705591999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.701029</v>
+        <v>22.701028999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.350000</v>
+        <v>1771.35</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.860000</v>
+        <v>-1092.8599999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>81735.803016</v>
+        <v>81735.803016000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.704390</v>
+        <v>22.70439</v>
       </c>
       <c r="CE14" s="1">
-        <v>2187.810000</v>
+        <v>2187.81</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1741.480000</v>
+        <v>-1741.48</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>81563.161353</v>
+        <v>81563.161353000003</v>
       </c>
       <c r="B15" s="1">
-        <v>22.656434</v>
+        <v>22.656434000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.700000</v>
+        <v>1149.7</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.127000</v>
+        <v>-258.12700000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>81573.600846</v>
+        <v>81573.600846000001</v>
       </c>
       <c r="G15" s="1">
-        <v>22.659334</v>
+        <v>22.659334000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.750000</v>
+        <v>1171.75</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.605000</v>
+        <v>-217.60499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>81584.163152</v>
+        <v>81584.163151999994</v>
       </c>
       <c r="L15" s="1">
-        <v>22.662268</v>
+        <v>22.662268000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.300000</v>
+        <v>1200.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.666000</v>
+        <v>-151.666</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>81594.944194</v>
+        <v>81594.944193999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.665262</v>
+        <v>22.665261999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.666000</v>
+        <v>-129.666</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>81605.440997</v>
+        <v>81605.440996999998</v>
       </c>
       <c r="V15" s="1">
-        <v>22.668178</v>
+        <v>22.668178000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.180000</v>
+        <v>1216.18</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.781000</v>
+        <v>-108.78100000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>81615.987462</v>
+        <v>81615.987462000005</v>
       </c>
       <c r="AA15" s="1">
         <v>22.671108</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.990000</v>
+        <v>1223.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.301200</v>
+        <v>-91.301199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>81626.202041</v>
+        <v>81626.202040999997</v>
       </c>
       <c r="AF15" s="1">
         <v>22.673945</v>
       </c>
       <c r="AG15" s="1">
-        <v>1228.990000</v>
+        <v>1228.99</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.555500</v>
+        <v>-86.555499999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>81636.491051</v>
+        <v>81636.491051000005</v>
       </c>
       <c r="AK15" s="1">
         <v>22.676803</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.040000</v>
+        <v>1236.04</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.680300</v>
+        <v>-89.680300000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>81646.846558</v>
+        <v>81646.846558000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.679680</v>
+        <v>22.679680000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.329000</v>
+        <v>-101.32899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>81657.850767</v>
+        <v>81657.850766999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.682736</v>
+        <v>22.682735999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1253.930000</v>
+        <v>1253.93</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.400000</v>
+        <v>-120.4</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>81668.833680</v>
+        <v>81668.833679999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.685787</v>
+        <v>22.685787000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.310000</v>
+        <v>1262.31</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.774000</v>
+        <v>-137.774</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>81679.842882</v>
+        <v>81679.842881999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.688845</v>
+        <v>22.688845000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.296000</v>
+        <v>-219.29599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>81691.020227</v>
+        <v>81691.020227000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.691950</v>
+        <v>22.691949999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1371.840000</v>
+        <v>1371.84</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.091000</v>
+        <v>-355.09100000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>81702.939587</v>
+        <v>81702.939587000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.695261</v>
+        <v>22.695260999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.520000</v>
+        <v>1486.52</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.680000</v>
+        <v>-575.67999999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>81713.388311</v>
+        <v>81713.388311000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.698163</v>
+        <v>22.698163000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1618.400000</v>
+        <v>1618.4</v>
       </c>
       <c r="BV15" s="1">
-        <v>-823.935000</v>
+        <v>-823.93499999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>81724.128680</v>
+        <v>81724.128679999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.701147</v>
+        <v>22.701146999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1771.150000</v>
+        <v>1771.15</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.980000</v>
+        <v>-1092.98</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>81736.334230</v>
+        <v>81736.334229999993</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.704537</v>
+        <v>22.704536999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2186.120000</v>
+        <v>2186.12</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1742.750000</v>
+        <v>-1742.75</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>81563.528059</v>
+        <v>81563.528059000004</v>
       </c>
       <c r="B16" s="1">
-        <v>22.656536</v>
+        <v>22.656535999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.630000</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.926000</v>
+        <v>-257.92599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>81573.978270</v>
+        <v>81573.978270000007</v>
       </c>
       <c r="G16" s="1">
-        <v>22.659438</v>
+        <v>22.659438000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.870000</v>
+        <v>1171.8699999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.382000</v>
+        <v>-217.38200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>81584.504368</v>
+        <v>81584.504367999994</v>
       </c>
       <c r="L16" s="1">
-        <v>22.662362</v>
+        <v>22.662362000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.606000</v>
+        <v>-151.60599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>81595.297313</v>
+        <v>81595.297313000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.665360</v>
+        <v>22.66536</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.641000</v>
+        <v>-129.64099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>81605.787701</v>
+        <v>81605.787700999994</v>
       </c>
       <c r="V16" s="1">
         <v>22.668274</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.649000</v>
+        <v>-108.649</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>81616.413494</v>
+        <v>81616.413493999993</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.671226</v>
+        <v>22.671226000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.100000</v>
+        <v>1224.0999999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.413900</v>
+        <v>-91.413899999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>81626.643480</v>
+        <v>81626.643479999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.674068</v>
+        <v>22.674067999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1228.920000</v>
+        <v>1228.92</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.698200</v>
+        <v>-86.6982</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>81636.769306</v>
+        <v>81636.769306000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.676880</v>
+        <v>22.676880000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.652500</v>
+        <v>-89.652500000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>81647.206157</v>
+        <v>81647.206156999993</v>
       </c>
       <c r="AP16" s="1">
         <v>22.679779</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.311000</v>
+        <v>-101.31100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>81658.212846</v>
+        <v>81658.212845999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.682837</v>
+        <v>22.682836999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.414000</v>
+        <v>-120.414</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>81669.192288</v>
+        <v>81669.192288000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.685887</v>
+        <v>22.685887000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.752000</v>
+        <v>-137.75200000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>81680.598289</v>
+        <v>81680.598289000001</v>
       </c>
       <c r="BE16" s="1">
         <v>22.689055</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.293000</v>
+        <v>-219.29300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>81691.789057</v>
+        <v>81691.789057000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.692164</v>
+        <v>22.692163999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1371.870000</v>
+        <v>1371.87</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.090000</v>
+        <v>-355.09</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>81703.332422</v>
+        <v>81703.332422000007</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.695370</v>
+        <v>22.69537</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.550000</v>
+        <v>1486.55</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.703000</v>
+        <v>-575.70299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>81713.831142</v>
+        <v>81713.831141999995</v>
       </c>
       <c r="BT16" s="1">
         <v>22.698286</v>
       </c>
       <c r="BU16" s="1">
-        <v>1618.480000</v>
+        <v>1618.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-823.861000</v>
+        <v>-823.86099999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>81724.570614</v>
+        <v>81724.570613999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.701270</v>
+        <v>22.701270000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.440000</v>
+        <v>1771.44</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.820000</v>
+        <v>-1092.82</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>81737.161093</v>
+        <v>81737.161093000002</v>
       </c>
       <c r="CD16" s="1">
         <v>22.704767</v>
       </c>
       <c r="CE16" s="1">
-        <v>2187.590000</v>
+        <v>2187.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1744.130000</v>
+        <v>-1744.13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>81563.866827</v>
+        <v>81563.866827000005</v>
       </c>
       <c r="B17" s="1">
-        <v>22.656630</v>
+        <v>22.65663</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.590000</v>
+        <v>1149.5899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.650000</v>
+        <v>-257.64999999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>81574.327003</v>
+        <v>81574.327002999999</v>
       </c>
       <c r="G17" s="1">
-        <v>22.659535</v>
+        <v>22.659535000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1171.110000</v>
+        <v>1171.1099999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.317000</v>
+        <v>-217.31700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>81584.853552</v>
       </c>
       <c r="L17" s="1">
-        <v>22.662459</v>
+        <v>22.662458999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.290000</v>
+        <v>1200.29</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.803000</v>
+        <v>-151.803</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>81595.722385</v>
+        <v>81595.722385000001</v>
       </c>
       <c r="Q17" s="1">
         <v>22.665478</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.608000</v>
+        <v>-129.608</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>81606.215779</v>
+        <v>81606.215779000006</v>
       </c>
       <c r="V17" s="1">
-        <v>22.668393</v>
+        <v>22.668392999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.602000</v>
+        <v>-108.602</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>81616.692773</v>
+        <v>81616.692773000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.671304</v>
+        <v>22.671303999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.275800</v>
+        <v>-91.275800000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>81626.899911</v>
@@ -4426,28 +4842,28 @@
         <v>22.674139</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.000000</v>
+        <v>1229</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.678800</v>
+        <v>-86.678799999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>81637.117498</v>
+        <v>81637.117498000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.676977</v>
+        <v>22.676977000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.643300</v>
+        <v>-89.643299999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>81647.565724</v>
@@ -4456,542 +4872,542 @@
         <v>22.679879</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.050000</v>
+        <v>1244.05</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.320000</v>
+        <v>-101.32</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>81658.578398</v>
+        <v>81658.578397999998</v>
       </c>
       <c r="AU17" s="1">
         <v>22.682938</v>
       </c>
       <c r="AV17" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.401000</v>
+        <v>-120.401</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>81669.914463</v>
+        <v>81669.914462999994</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.686087</v>
+        <v>22.686087000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.758000</v>
+        <v>-137.75800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>81680.925152</v>
+        <v>81680.925151999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.689146</v>
+        <v>22.689146000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.293000</v>
+        <v>-219.29300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>81692.167969</v>
+        <v>81692.167969000002</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.692269</v>
       </c>
       <c r="BK17" s="1">
-        <v>1371.880000</v>
+        <v>1371.88</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.076000</v>
+        <v>-355.07600000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>81703.753522</v>
+        <v>81703.753521999999</v>
       </c>
       <c r="BO17" s="1">
         <v>22.695487</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.550000</v>
+        <v>1486.55</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.675000</v>
+        <v>-575.67499999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>81714.237956</v>
+        <v>81714.237955999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.698399</v>
+        <v>22.698398999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1618.460000</v>
+        <v>1618.46</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.000000</v>
+        <v>-824</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>81725.319573</v>
+        <v>81725.319573000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.701478</v>
+        <v>22.701478000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.280000</v>
+        <v>1771.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.900000</v>
+        <v>-1092.9000000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>81737.366406</v>
+        <v>81737.366406000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.704824</v>
+        <v>22.704823999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.750000</v>
+        <v>2188.75</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1742.350000</v>
+        <v>-1742.35</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>81564.210058</v>
+        <v>81564.210057999997</v>
       </c>
       <c r="B18" s="1">
-        <v>22.656725</v>
+        <v>22.656725000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.730000</v>
+        <v>1149.73</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.923000</v>
+        <v>-257.923</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>81574.670188</v>
+        <v>81574.670188000004</v>
       </c>
       <c r="G18" s="1">
-        <v>22.659631</v>
+        <v>22.659631000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.640000</v>
+        <v>1171.6400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.299000</v>
+        <v>-217.29900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>81585.283583</v>
+        <v>81585.283582999997</v>
       </c>
       <c r="L18" s="1">
-        <v>22.662579</v>
+        <v>22.662579000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.410000</v>
+        <v>1200.4100000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.782000</v>
+        <v>-151.78200000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>81595.991802</v>
+        <v>81595.991802000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.665553</v>
+        <v>22.665552999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.560000</v>
+        <v>1208.56</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.719000</v>
+        <v>-129.71899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>81606.492516</v>
+        <v>81606.492515999998</v>
       </c>
       <c r="V18" s="1">
-        <v>22.668470</v>
+        <v>22.668469999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.240000</v>
+        <v>1216.24</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.629000</v>
+        <v>-108.629</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>81617.044932</v>
+        <v>81617.044932000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.671401</v>
+        <v>22.671400999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.333500</v>
+        <v>-91.333500000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>81627.246616</v>
+        <v>81627.246616000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.674235</v>
+        <v>22.674234999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1228.840000</v>
+        <v>1228.8399999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.661000</v>
+        <v>-86.661000000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>81637.468667</v>
+        <v>81637.468666999994</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.677075</v>
+        <v>22.677074999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.672000</v>
+        <v>-89.671999999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>81648.287130</v>
+        <v>81648.287129999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.680080</v>
+        <v>22.68008</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.337000</v>
+        <v>-101.337</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>81659.305037</v>
+        <v>81659.305036999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.683140</v>
+        <v>22.683140000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.435000</v>
+        <v>-120.435</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>81670.288483</v>
+        <v>81670.288482999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.686191</v>
+        <v>22.686191000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.772000</v>
+        <v>-137.77199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>81681.288721</v>
+        <v>81681.288721000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.689247</v>
+        <v>22.689247000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.320000</v>
+        <v>-219.32</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>81692.542945</v>
+        <v>81692.542944999994</v>
       </c>
       <c r="BJ18" s="1">
         <v>22.692373</v>
       </c>
       <c r="BK18" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.112000</v>
+        <v>-355.11200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>81704.459857</v>
+        <v>81704.459856999994</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.695683</v>
+        <v>22.695682999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.520000</v>
+        <v>1486.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.701000</v>
+        <v>-575.70100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>81714.981019</v>
+        <v>81714.981018999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.698606</v>
+        <v>22.698606000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1618.520000</v>
+        <v>1618.52</v>
       </c>
       <c r="BV18" s="1">
-        <v>-823.995000</v>
+        <v>-823.995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>81725.438613</v>
+        <v>81725.438613000006</v>
       </c>
       <c r="BY18" s="1">
         <v>22.701511</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.340000</v>
+        <v>1771.34</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1093.000000</v>
+        <v>-1093</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>81737.884726</v>
+        <v>81737.884726000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.704968</v>
+        <v>22.704968000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2188.770000</v>
+        <v>2188.77</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1742.320000</v>
+        <v>-1742.32</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>81564.632649</v>
+        <v>81564.632649000006</v>
       </c>
       <c r="B19" s="1">
-        <v>22.656842</v>
+        <v>22.656842000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.670000</v>
+        <v>1149.67</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.032000</v>
+        <v>-258.03199999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>81575.090337</v>
+        <v>81575.090337000001</v>
       </c>
       <c r="G19" s="1">
-        <v>22.659747</v>
+        <v>22.659746999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.680000</v>
+        <v>1171.68</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.518000</v>
+        <v>-216.518</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>81585.555390</v>
+        <v>81585.555389999994</v>
       </c>
       <c r="L19" s="1">
         <v>22.662654</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.360000</v>
+        <v>1200.3599999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.650000</v>
+        <v>-151.65</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>81596.339936</v>
+        <v>81596.339936000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.665650</v>
+        <v>22.665649999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.691000</v>
+        <v>-129.691</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>81606.835757</v>
+        <v>81606.835756999993</v>
       </c>
       <c r="V19" s="1">
-        <v>22.668565</v>
+        <v>22.668565000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.519000</v>
+        <v>-108.51900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>81617.389801</v>
+        <v>81617.389800999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.671497</v>
+        <v>22.671496999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1223.990000</v>
+        <v>1223.99</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.274800</v>
+        <v>-91.274799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>81627.631548</v>
+        <v>81627.631548000005</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.674342</v>
+        <v>22.674341999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1228.790000</v>
+        <v>1228.79</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.625800</v>
+        <v>-86.625799999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>81638.163561</v>
+        <v>81638.163560999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.677268</v>
+        <v>22.677268000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.070000</v>
+        <v>1236.07</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.662800</v>
+        <v>-89.662800000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>81648.676298</v>
+        <v>81648.676298000006</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.680188</v>
+        <v>22.680188000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.323000</v>
+        <v>-101.32299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>81659.699852</v>
+        <v>81659.699852000005</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.683250</v>
+        <v>22.683250000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1253.970000</v>
+        <v>1253.97</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.435000</v>
+        <v>-120.435</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>81670.658463</v>
@@ -5000,497 +5416,497 @@
         <v>22.686294</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.773000</v>
+        <v>-137.773</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>81681.971247</v>
+        <v>81681.971246999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.689436</v>
+        <v>22.689436000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.311000</v>
+        <v>-219.31100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>81693.230896</v>
+        <v>81693.230895999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.692564</v>
+        <v>22.692564000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1371.880000</v>
+        <v>1371.88</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.104000</v>
+        <v>-355.10399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>81704.569936</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.695714</v>
+        <v>22.695713999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.686000</v>
+        <v>-575.68600000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>81715.153571</v>
+        <v>81715.153571000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.698654</v>
+        <v>22.698654000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.520000</v>
+        <v>1618.52</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.084000</v>
+        <v>-824.08399999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>81725.865670</v>
+        <v>81725.865669999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.701629</v>
+        <v>22.701629000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.330000</v>
+        <v>1771.33</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.950000</v>
+        <v>-1092.95</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>81738.436772</v>
+        <v>81738.436772000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.705121</v>
+        <v>22.705120999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.330000</v>
+        <v>2188.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1743.970000</v>
+        <v>-1743.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>81564.911897</v>
+        <v>81564.911896999998</v>
       </c>
       <c r="B20" s="1">
-        <v>22.656920</v>
+        <v>22.65692</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.360000</v>
+        <v>1149.3599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.854000</v>
+        <v>-257.85399999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>81575.383436</v>
+        <v>81575.383436000004</v>
       </c>
       <c r="G20" s="1">
-        <v>22.659829</v>
+        <v>22.659828999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.610000</v>
+        <v>1171.6099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.538000</v>
+        <v>-217.53800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>81585.906558</v>
+        <v>81585.906558000002</v>
       </c>
       <c r="L20" s="1">
-        <v>22.662752</v>
+        <v>22.662752000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.712000</v>
+        <v>-151.71199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>81596.689583</v>
+        <v>81596.689582999999</v>
       </c>
       <c r="Q20" s="1">
         <v>22.665747</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.675000</v>
+        <v>-129.67500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>81607.180999</v>
+        <v>81607.180999000004</v>
       </c>
       <c r="V20" s="1">
         <v>22.668661</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.340000</v>
+        <v>1216.3399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.664000</v>
+        <v>-108.664</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>81618.087491</v>
+        <v>81618.087490999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.671691</v>
+        <v>22.671690999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.040000</v>
+        <v>1224.04</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.351100</v>
+        <v>-91.351100000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>81628.288214</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.674525</v>
+        <v>22.674524999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1228.890000</v>
+        <v>1228.8900000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.681400</v>
+        <v>-86.681399999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>81638.512248</v>
+        <v>81638.512247999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.677365</v>
+        <v>22.677365000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.070000</v>
+        <v>1236.07</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.678700</v>
+        <v>-89.678700000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>81649.035866</v>
+        <v>81649.035866000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.680288</v>
+        <v>22.680288000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.325000</v>
+        <v>-101.325</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>81660.065407</v>
+        <v>81660.065407000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.683352</v>
+        <v>22.683351999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1253.940000</v>
+        <v>1253.94</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.416000</v>
+        <v>-120.416</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>81671.347901</v>
+        <v>81671.347901000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.686486</v>
+        <v>22.686485999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.757000</v>
+        <v>-137.75700000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>81682.397775</v>
+        <v>81682.397775000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.689555</v>
+        <v>22.689554999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.290000</v>
+        <v>1302.29</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.284000</v>
+        <v>-219.28399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>81693.701103</v>
+        <v>81693.701102999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.692695</v>
+        <v>22.692695000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1371.890000</v>
+        <v>1371.89</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.091000</v>
+        <v>-355.09100000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>81704.994017</v>
+        <v>81704.994017000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.695832</v>
+        <v>22.695831999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.741000</v>
+        <v>-575.74099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>81715.533506</v>
+        <v>81715.533506000007</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.698759</v>
+        <v>22.698758999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.480000</v>
+        <v>1618.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.065000</v>
+        <v>-824.06500000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>81726.281812</v>
+        <v>81726.281812000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.701745</v>
+        <v>22.701744999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.380000</v>
+        <v>1771.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.810000</v>
+        <v>-1092.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>81738.967028</v>
+        <v>81738.967027999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.705269</v>
+        <v>22.705269000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2188.940000</v>
+        <v>2188.94</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1742.140000</v>
+        <v>-1742.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>81565.252153</v>
+        <v>81565.252152999994</v>
       </c>
       <c r="B21" s="1">
         <v>22.657014</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.952000</v>
+        <v>-257.952</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>81575.887408</v>
+        <v>81575.887407999995</v>
       </c>
       <c r="G21" s="1">
         <v>22.659969</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.880000</v>
+        <v>1171.8800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.758000</v>
+        <v>-217.75800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>81586.250317</v>
+        <v>81586.250316999998</v>
       </c>
       <c r="L21" s="1">
-        <v>22.662847</v>
+        <v>22.662846999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.894000</v>
+        <v>-151.89400000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>81597.384015</v>
+        <v>81597.384015000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.665940</v>
+        <v>22.665939999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.500000</v>
+        <v>1208.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.626000</v>
+        <v>-129.626</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>81607.865937</v>
+        <v>81607.865936999995</v>
       </c>
       <c r="V21" s="1">
-        <v>22.668852</v>
+        <v>22.668852000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.625000</v>
+        <v>-108.625</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>81618.436179</v>
+        <v>81618.436178999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.671788</v>
+        <v>22.671787999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.302700</v>
+        <v>-91.302700000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>81628.638659</v>
+        <v>81628.638659000004</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.674622</v>
+        <v>22.674621999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1228.840000</v>
+        <v>1228.8399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.674700</v>
+        <v>-86.674700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>81638.862953</v>
+        <v>81638.862953000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.677462</v>
+        <v>22.677461999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.070000</v>
+        <v>1236.07</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.658500</v>
+        <v>-89.658500000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>81649.710921</v>
+        <v>81649.710921000005</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.680475</v>
+        <v>22.680475000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.325000</v>
+        <v>-101.325</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>81660.740458</v>
@@ -5499,13 +5915,13 @@
         <v>22.683539</v>
       </c>
       <c r="AV21" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.406000</v>
+        <v>-120.40600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>81671.751655</v>
@@ -5514,936 +5930,936 @@
         <v>22.686598</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.340000</v>
+        <v>1262.3399999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.773000</v>
+        <v>-137.773</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>81682.756383</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.689655</v>
+        <v>22.689654999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.280000</v>
+        <v>1302.28</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.273000</v>
+        <v>-219.273</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>81694.091455</v>
+        <v>81694.091455000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.692803</v>
+        <v>22.692803000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1371.820000</v>
+        <v>1371.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.081000</v>
+        <v>-355.08100000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>81705.390816</v>
+        <v>81705.390815999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.695942</v>
+        <v>22.695941999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.490000</v>
+        <v>1486.49</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.653000</v>
+        <v>-575.65300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>81715.968994</v>
+        <v>81715.968993999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.698880</v>
+        <v>22.698879999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.490000</v>
+        <v>1618.49</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.204000</v>
+        <v>-824.20399999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>81726.729218</v>
+        <v>81726.729217999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.701869</v>
+        <v>22.701868999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.380000</v>
+        <v>1771.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.920000</v>
+        <v>-1092.92</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>81739.487796</v>
+        <v>81739.487796000001</v>
       </c>
       <c r="CD21" s="1">
         <v>22.705413</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.120000</v>
+        <v>2189.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1742.640000</v>
+        <v>-1742.64</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>81565.596378</v>
+        <v>81565.596378000002</v>
       </c>
       <c r="B22" s="1">
-        <v>22.657110</v>
+        <v>22.657109999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.480000</v>
+        <v>1149.48</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.760000</v>
+        <v>-257.76</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>81576.405226</v>
+        <v>81576.405226000003</v>
       </c>
       <c r="G22" s="1">
-        <v>22.660113</v>
+        <v>22.660112999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1171.820000</v>
+        <v>1171.82</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.183000</v>
+        <v>-217.18299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>81586.947165</v>
+        <v>81586.947165000005</v>
       </c>
       <c r="L22" s="1">
         <v>22.663041</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.430000</v>
+        <v>1200.43</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.702000</v>
+        <v>-151.702</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>81597.735646</v>
+        <v>81597.735646000001</v>
       </c>
       <c r="Q22" s="1">
         <v>22.666038</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.605000</v>
+        <v>-129.60499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>81608.210688</v>
+        <v>81608.210688000006</v>
       </c>
       <c r="V22" s="1">
-        <v>22.668947</v>
+        <v>22.668946999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.779000</v>
+        <v>-108.779</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>81618.784866</v>
+        <v>81618.784866000002</v>
       </c>
       <c r="AA22" s="1">
         <v>22.671885</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.292500</v>
+        <v>-91.292500000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>81629.292644</v>
+        <v>81629.292644000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.674804</v>
+        <v>22.674804000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1228.970000</v>
+        <v>1228.97</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.715300</v>
+        <v>-86.715299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81639.527077</v>
+        <v>81639.527077000006</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.677646</v>
+        <v>22.677645999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.690900</v>
+        <v>-89.690899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>81650.138473</v>
+        <v>81650.138472999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.680594</v>
+        <v>22.680593999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.314000</v>
+        <v>-101.31399999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>81661.156106</v>
+        <v>81661.156105999995</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.683654</v>
+        <v>22.683654000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.410000</v>
+        <v>-120.41</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>81672.127116</v>
+        <v>81672.127116000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>22.686702</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.758000</v>
+        <v>-137.75800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>81683.121439</v>
+        <v>81683.121438999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.689756</v>
+        <v>22.689755999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.299000</v>
+        <v>-219.29900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>81694.466958</v>
+        <v>81694.466958000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.692907</v>
+        <v>22.692907000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1371.880000</v>
+        <v>1371.88</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.114000</v>
+        <v>-355.11399999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>81705.820848</v>
+        <v>81705.820848000003</v>
       </c>
       <c r="BO22" s="1">
         <v>22.696061</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.671000</v>
+        <v>-575.67100000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>81716.375254</v>
+        <v>81716.375253999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.698993</v>
+        <v>22.698993000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.530000</v>
+        <v>1618.53</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.146000</v>
+        <v>-824.14599999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>81727.148850</v>
+        <v>81727.148849999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.701986</v>
+        <v>22.701986000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.370000</v>
+        <v>1771.37</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.990000</v>
+        <v>-1092.99</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>81740.037858</v>
+        <v>81740.037857999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.705566</v>
+        <v>22.705566000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2188.170000</v>
+        <v>2188.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1744.000000</v>
+        <v>-1744</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>81566.277626</v>
+        <v>81566.277625999996</v>
       </c>
       <c r="B23" s="1">
-        <v>22.657299</v>
+        <v>22.657298999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.104000</v>
+        <v>-258.10399999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>81576.762819</v>
+        <v>81576.762818999996</v>
       </c>
       <c r="G23" s="1">
-        <v>22.660212</v>
+        <v>22.660212000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.900000</v>
+        <v>1170.9000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.775000</v>
+        <v>-216.77500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>81587.296349</v>
+        <v>81587.296348999997</v>
       </c>
       <c r="L23" s="1">
         <v>22.663138</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.791000</v>
+        <v>-151.791</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>81598.082350</v>
+        <v>81598.082349999997</v>
       </c>
       <c r="Q23" s="1">
         <v>22.666134</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.628000</v>
+        <v>-129.62799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>81608.554384</v>
+        <v>81608.554384000003</v>
       </c>
       <c r="V23" s="1">
-        <v>22.669043</v>
+        <v>22.669042999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.160000</v>
+        <v>1216.1600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.799000</v>
+        <v>-108.79900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>81619.452978</v>
+        <v>81619.452978000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.672070</v>
+        <v>22.672070000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.000000</v>
+        <v>1224</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.286800</v>
+        <v>-91.286799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>81629.666101</v>
+        <v>81629.666100999995</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.674907</v>
+        <v>22.674907000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1228.930000</v>
+        <v>1228.93</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.599200</v>
+        <v>-86.599199999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81639.909510</v>
+        <v>81639.909509999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.677753</v>
+        <v>22.677752999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.664500</v>
+        <v>-89.664500000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>81650.518408</v>
+        <v>81650.518408000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.680700</v>
+        <v>22.680700000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.317000</v>
+        <v>-101.31699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>81661.520703</v>
+        <v>81661.520703000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.683756</v>
+        <v>22.683755999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1253.930000</v>
+        <v>1253.93</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.424000</v>
+        <v>-120.42400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>81672.507051</v>
+        <v>81672.507050999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.686808</v>
+        <v>22.686807999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.780000</v>
+        <v>-137.78</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>81683.539597</v>
+        <v>81683.539596999995</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.689872</v>
+        <v>22.689872000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.240000</v>
+        <v>1302.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.321000</v>
+        <v>-219.321</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>81694.891007</v>
+        <v>81694.891006999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.693025</v>
+        <v>22.693024999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1371.830000</v>
+        <v>1371.83</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.127000</v>
+        <v>-355.12700000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>81706.211696</v>
+        <v>81706.211695999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.696170</v>
+        <v>22.696169999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.700000</v>
+        <v>-575.70000000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>81716.803265</v>
+        <v>81716.803264999995</v>
       </c>
       <c r="BT23" s="1">
         <v>22.699112</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.640000</v>
+        <v>1618.64</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.205000</v>
+        <v>-824.20500000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>81727.570914</v>
+        <v>81727.570913999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.702103</v>
+        <v>22.702103000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.430000</v>
+        <v>1771.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1093.000000</v>
+        <v>-1093</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>81740.566129</v>
+        <v>81740.566128999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.705713</v>
+        <v>22.705712999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2188.550000</v>
+        <v>2188.5500000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1741.800000</v>
+        <v>-1741.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>81566.618135</v>
+        <v>81566.618134999997</v>
       </c>
       <c r="B24" s="1">
         <v>22.657394</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.685000</v>
+        <v>-257.685</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>81577.110505</v>
+        <v>81577.110505000004</v>
       </c>
       <c r="G24" s="1">
-        <v>22.660308</v>
+        <v>22.660308000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.500000</v>
+        <v>1171.5</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.745000</v>
+        <v>-216.745</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>81587.642555</v>
+        <v>81587.642554999999</v>
       </c>
       <c r="L24" s="1">
-        <v>22.663234</v>
+        <v>22.663233999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.716000</v>
+        <v>-151.71600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>81598.748974</v>
+        <v>81598.748974000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.666319</v>
+        <v>22.666319000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.691000</v>
+        <v>-129.691</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>81609.242335</v>
+        <v>81609.242335000003</v>
       </c>
       <c r="V24" s="1">
-        <v>22.669234</v>
+        <v>22.669233999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.190000</v>
+        <v>1216.19</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>81619.831462</v>
+        <v>81619.831462000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.672175</v>
+        <v>22.672174999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.415300</v>
+        <v>-91.415300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>81630.000899</v>
+        <v>81630.000899000006</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.675000</v>
+        <v>22.675000000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1228.910000</v>
+        <v>1228.9100000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.575300</v>
+        <v>-86.575299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>81640.255228</v>
+        <v>81640.255227999995</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.677849</v>
+        <v>22.677848999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.678300</v>
+        <v>-89.678299999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>81650.879496</v>
+        <v>81650.879495999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.680800</v>
+        <v>22.680800000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.020000</v>
+        <v>1244.02</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.340000</v>
+        <v>-101.34</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>81661.887705</v>
+        <v>81661.887705000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.683858</v>
+        <v>22.683858000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1253.960000</v>
+        <v>1253.96</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.413000</v>
+        <v>-120.413</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>81672.941546</v>
+        <v>81672.941546000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.686928</v>
+        <v>22.686928000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.781000</v>
+        <v>-137.78100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>81683.843612</v>
+        <v>81683.843611999997</v>
       </c>
       <c r="BE24" s="1">
         <v>22.689957</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.299000</v>
+        <v>-219.29900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>81695.217901</v>
+        <v>81695.217900999996</v>
       </c>
       <c r="BJ24" s="1">
         <v>22.693116</v>
       </c>
       <c r="BK24" s="1">
-        <v>1371.840000</v>
+        <v>1371.84</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.114000</v>
+        <v>-355.11399999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>81706.631317</v>
+        <v>81706.631317000007</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.696286</v>
+        <v>22.696286000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.570000</v>
+        <v>1486.57</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.652000</v>
+        <v>-575.65200000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>81717.216960</v>
+        <v>81717.216960000005</v>
       </c>
       <c r="BT24" s="1">
         <v>22.699227</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.570000</v>
+        <v>1618.57</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.191000</v>
+        <v>-824.19100000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>81728.021313</v>
+        <v>81728.021313000005</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.702228</v>
+        <v>22.702228000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.320000</v>
+        <v>1771.32</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.730000</v>
+        <v>-1092.73</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>81741.084418</v>
+        <v>81741.084417999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.705857</v>
+        <v>22.705857000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>2186.590000</v>
+        <v>2186.59</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1742.010000</v>
+        <v>-1742.01</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>81566.961863</v>
+        <v>81566.961863000004</v>
       </c>
       <c r="B25" s="1">
-        <v>22.657489</v>
+        <v>22.657489000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.113000</v>
+        <v>-258.113</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>81577.772665</v>
+        <v>81577.772664999997</v>
       </c>
       <c r="G25" s="1">
-        <v>22.660492</v>
+        <v>22.660492000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.400000</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.544000</v>
+        <v>-216.54400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>81588.303227</v>
+        <v>81588.303226999997</v>
       </c>
       <c r="L25" s="1">
         <v>22.663418</v>
       </c>
       <c r="M25" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.811000</v>
+        <v>-151.81100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>81599.129436</v>
+        <v>81599.129436000003</v>
       </c>
       <c r="Q25" s="1">
         <v>22.666425</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.696000</v>
+        <v>-129.696</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>81609.592546</v>
@@ -6452,452 +6868,453 @@
         <v>22.669331</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.749000</v>
+        <v>-108.749</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>81620.180608</v>
+        <v>81620.180607999995</v>
       </c>
       <c r="AA25" s="1">
         <v>22.672272</v>
       </c>
       <c r="AB25" s="1">
-        <v>1223.990000</v>
+        <v>1223.99</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.262900</v>
+        <v>-91.262900000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>81630.360040</v>
+        <v>81630.36004</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.675100</v>
+        <v>22.6751</v>
       </c>
       <c r="AG25" s="1">
-        <v>1228.820000</v>
+        <v>1228.82</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.558400</v>
+        <v>-86.558400000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>81640.607350</v>
+        <v>81640.607350000006</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.677946</v>
+        <v>22.677945999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.670700</v>
+        <v>-89.670699999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>81651.312039</v>
+        <v>81651.312038999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.680920</v>
+        <v>22.68092</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.315000</v>
+        <v>-101.315</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>81662.314762</v>
+        <v>81662.314761999995</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.683976</v>
+        <v>22.683976000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1253.950000</v>
+        <v>1253.95</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.427000</v>
+        <v>-120.42700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>81673.225754</v>
+        <v>81673.225753999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.687007</v>
+        <v>22.687007000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.737000</v>
+        <v>-137.73699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>81684.203213</v>
+        <v>81684.203213000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.690056</v>
+        <v>22.690055999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.260000</v>
+        <v>1302.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.309000</v>
+        <v>-219.309</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>81695.600317</v>
+        <v>81695.600317000004</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.693222</v>
+        <v>22.693221999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1371.850000</v>
+        <v>1371.85</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.079000</v>
+        <v>-355.07900000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>81707.030591</v>
+        <v>81707.030591000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.696397</v>
+        <v>22.696397000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.530000</v>
+        <v>1486.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.668000</v>
+        <v>-575.66800000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>81717.648944</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.699347</v>
+        <v>22.699346999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.640000</v>
+        <v>1618.64</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.293000</v>
+        <v>-824.29300000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>81728.454785</v>
+        <v>81728.454784999994</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.702349</v>
+        <v>22.702349000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.160000</v>
+        <v>1771.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.950000</v>
+        <v>-1092.95</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>81741.600784</v>
+        <v>81741.600783999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.706000</v>
+        <v>22.706</v>
       </c>
       <c r="CE25" s="1">
-        <v>2187.140000</v>
+        <v>2187.14</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1743.820000</v>
+        <v>-1743.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>81567.616582</v>
+        <v>81567.616582000002</v>
       </c>
       <c r="B26" s="1">
-        <v>22.657671</v>
+        <v>22.657671000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.490000</v>
+        <v>1149.49</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.083000</v>
+        <v>-258.08300000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>81578.147177</v>
+        <v>81578.147177000006</v>
       </c>
       <c r="G26" s="1">
-        <v>22.660596</v>
+        <v>22.660596000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1171.870000</v>
+        <v>1171.8699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.155000</v>
+        <v>-217.155</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>81588.681179</v>
+        <v>81588.681179000007</v>
       </c>
       <c r="L26" s="1">
-        <v>22.663523</v>
+        <v>22.663523000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.370000</v>
+        <v>1200.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.893000</v>
+        <v>-151.893</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>81599.476108</v>
+        <v>81599.476108000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.666521</v>
+        <v>22.666520999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.652000</v>
+        <v>-129.65199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>81609.939251</v>
+        <v>81609.939251000003</v>
       </c>
       <c r="V26" s="1">
         <v>22.669428</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.200000</v>
+        <v>1216.2</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>81620.529793</v>
+        <v>81620.529792999994</v>
       </c>
       <c r="AA26" s="1">
         <v>22.672369</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.175600</v>
+        <v>-91.175600000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>81630.788432</v>
+        <v>81630.788432000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.675219</v>
+        <v>22.675218999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1228.810000</v>
+        <v>1228.81</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.676400</v>
+        <v>-86.676400000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>81641.033909</v>
+        <v>81641.033909000005</v>
       </c>
       <c r="AK26" s="1">
         <v>22.678065</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.672000</v>
+        <v>-89.671999999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>81651.586295</v>
+        <v>81651.586295000001</v>
       </c>
       <c r="AP26" s="1">
         <v>22.680996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.313000</v>
+        <v>-101.313</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>81662.652383</v>
+        <v>81662.652382999993</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.684070</v>
+        <v>22.684069999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1253.930000</v>
+        <v>1253.93</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.436000</v>
+        <v>-120.43600000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>81673.583371</v>
+        <v>81673.583371000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>22.687106</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.350000</v>
+        <v>1262.3499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.767000</v>
+        <v>-137.767</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>81684.564827</v>
+        <v>81684.564826999995</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.690157</v>
+        <v>22.690156999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.250000</v>
+        <v>1302.25</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.286000</v>
+        <v>-219.286</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>81695.989644</v>
+        <v>81695.989644000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.693330</v>
+        <v>22.69333</v>
       </c>
       <c r="BK26" s="1">
-        <v>1371.880000</v>
+        <v>1371.88</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.061000</v>
+        <v>-355.06099999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>81707.469549</v>
+        <v>81707.469549000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.696519</v>
+        <v>22.696518999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.520000</v>
+        <v>1486.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.660000</v>
+        <v>-575.66</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>81718.074511</v>
+        <v>81718.074510999999</v>
       </c>
       <c r="BT26" s="1">
         <v>22.699465</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.670000</v>
+        <v>1618.67</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.288000</v>
+        <v>-824.28800000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>81728.876881</v>
+        <v>81728.876881000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.702466</v>
+        <v>22.702466000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.340000</v>
+        <v>1771.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1093.040000</v>
+        <v>-1093.04</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>81742.123535</v>
+        <v>81742.123535000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.706145</v>
+        <v>22.706144999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2186.720000</v>
+        <v>2186.7199999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1743.420000</v>
+        <v>-1743.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>